--- a/OverTimeManagement.xlsx
+++ b/OverTimeManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,7 +13,8 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="UpdatedOverTimeManagement" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Status" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Last Day" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Last Day" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Sheet3!$1:$1048576</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="148">
   <si>
     <t xml:space="preserve">NeedMember</t>
   </si>
@@ -331,6 +332,144 @@
   </si>
   <si>
     <t xml:space="preserve">Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a,d,c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e,f,g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h,i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b,c,d,e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h,i,j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j,a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f,g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a,b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e,f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b,c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c,d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-Eary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-Eary-Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-Late-Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/08/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a,b,c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j,d,e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Rary-Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d,e,f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Late-Plus</t>
   </si>
   <si>
     <t xml:space="preserve">M4 last day </t>
@@ -347,7 +486,7 @@
     <numFmt numFmtId="167" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,11 +507,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,7 +590,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,24 +623,48 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1336,7 +1494,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1539,10 +1697,10 @@
       <c r="B5" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="n">
@@ -1558,10 +1716,10 @@
         <v>45506</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1571,10 +1729,10 @@
         <v>45507</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1584,8 +1742,8 @@
         <v>45508</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
@@ -1593,10 +1751,10 @@
         <v>45509</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1606,10 +1764,10 @@
         <v>45510</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1619,10 +1777,10 @@
         <v>45511</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1632,10 +1790,10 @@
         <v>45512</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1645,8 +1803,8 @@
         <v>45513</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
@@ -1654,8 +1812,8 @@
         <v>45514</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
@@ -1663,10 +1821,10 @@
         <v>45515</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1676,10 +1834,10 @@
         <v>45516</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1688,10 +1846,10 @@
         <f aca="false">$A16+1</f>
         <v>45517</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1700,10 +1858,10 @@
         <f aca="false">$A17+1</f>
         <v>45518</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1712,18 +1870,18 @@
         <f aca="false">$A18+1</f>
         <v>45519</v>
       </c>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <f aca="false">$A19+1</f>
         <v>45520</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1732,10 +1890,10 @@
         <f aca="false">$A20+1</f>
         <v>45521</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1744,10 +1902,10 @@
         <f aca="false">$A21+1</f>
         <v>45522</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1756,10 +1914,10 @@
         <f aca="false">$A22+1</f>
         <v>45523</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1768,18 +1926,18 @@
         <f aca="false">$A23+1</f>
         <v>45524</v>
       </c>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <f aca="false">$A24+1</f>
         <v>45525</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1788,10 +1946,10 @@
         <f aca="false">$A25+1</f>
         <v>45526</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1800,10 +1958,10 @@
         <f aca="false">$A26+1</f>
         <v>45527</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1812,10 +1970,10 @@
         <f aca="false">$A27+1</f>
         <v>45528</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1824,26 +1982,26 @@
         <f aca="false">$A28+1</f>
         <v>45529</v>
       </c>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <f aca="false">$A29+1</f>
         <v>45530</v>
       </c>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <f aca="false">$A30+1</f>
         <v>45531</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1852,10 +2010,10 @@
         <f aca="false">$A31+1</f>
         <v>45532</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1864,10 +2022,10 @@
         <f aca="false">$A32+1</f>
         <v>45533</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1876,10 +2034,10 @@
         <f aca="false">$A33+1</f>
         <v>45534</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1888,18 +2046,18 @@
         <f aca="false">$A34+1</f>
         <v>45535</v>
       </c>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <f aca="false">$A35+1</f>
         <v>45536</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1908,10 +2066,10 @@
         <f aca="false">$A36+1</f>
         <v>45537</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1920,10 +2078,10 @@
         <f aca="false">$A37+1</f>
         <v>45538</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1946,66 +2104,66 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="8" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="5.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="9" width="10.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2023,16 +2181,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="0"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2047,13 +2205,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2074,7 +2232,7 @@
       <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="0"/>
+      <c r="J4" s="8"/>
       <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2083,27 +2241,27 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="0"/>
+      <c r="D6" s="8"/>
       <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2118,16 +2276,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -2138,13 +2296,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2153,7 +2311,7 @@
       <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -2164,13 +2322,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2184,299 +2342,422 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="K13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="G17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="E18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="J20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2498,99 +2779,99 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="12" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2610,6 +2891,997 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="99">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="J2:J9"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="F21:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="I21:I28"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="J30:J34"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="G39:G46"/>
+    <mergeCell ref="H39:H46"/>
+    <mergeCell ref="I39:I46"/>
+    <mergeCell ref="J39:J46"/>
+    <mergeCell ref="K39:K46"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="F48:F54"/>
+    <mergeCell ref="G48:G54"/>
+    <mergeCell ref="H48:H54"/>
+    <mergeCell ref="I48:I54"/>
+    <mergeCell ref="J48:J54"/>
+    <mergeCell ref="K48:K54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2619,8 +3891,8 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>101</v>
+      <c r="B1" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
